--- a/cp1/Andrievich_fb-92_cp1/bigram_frequency.xlsx
+++ b/cp1/Andrievich_fb-92_cp1/bigram_frequency.xlsx
@@ -597,82 +597,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.504820441480877e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0006604489715388294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.005619630770758065</v>
+        <v>0.002932727838174954</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.001071766558876936</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002758405513974621</v>
+        <v>0.002660188135995639</v>
       </c>
       <c r="G2" t="n">
-        <v>0.00571890500519417</v>
+        <v>0.00131086580680112</v>
       </c>
       <c r="H2" t="n">
-        <v>0.007713253464848057</v>
+        <v>0.001292473556960798</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005667495133789759</v>
+        <v>0.004603078528218727</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.0003477807242533582</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0006855293122301773</v>
       </c>
       <c r="L2" t="n">
-        <v>0.008627994625009306</v>
+        <v>0.005057868706088504</v>
       </c>
       <c r="M2" t="n">
-        <v>0.008390445564037199</v>
+        <v>0.01026789147903785</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002795633351888161</v>
+        <v>0.003688482104340906</v>
       </c>
       <c r="O2" t="n">
-        <v>0.004181927125620907</v>
+        <v>0.006092850765284796</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.845652239340019e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.001028293968345266</v>
       </c>
       <c r="R2" t="n">
-        <v>0.001310065343719309</v>
+        <v>0.005184942432258</v>
       </c>
       <c r="S2" t="n">
-        <v>0.009291004690707576</v>
+        <v>0.004788673049334702</v>
       </c>
       <c r="T2" t="n">
-        <v>0.005642676575180732</v>
+        <v>0.005821983085818238</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>9.028922648885262e-05</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.0002223790207966185</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.001337618170205224</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>8.527315835058303e-05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>0.001095174876855527</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>0.0009396767645691699</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>0.0004063015191998368</v>
       </c>
       <c r="AB2" t="n">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.004128744500030137</v>
+        <v>0.0008711238333461522</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>0.002519738228124091</v>
       </c>
     </row>
     <row r="3">
@@ -697,97 +697,97 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001133631399248927</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.173629526583489e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002926817161678727</v>
+        <v>0.002755493430622762</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001310065343719309</v>
+        <v>0.0007841786522828126</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.0001889385665414879</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.0006754971759536381</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5.350472680820896e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.0003762051103702193</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002831088435615341</v>
+        <v>0.002305719320891255</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.001272409284407719</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00134374767326013</v>
+        <v>9.697731733987874e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.001444627623821642</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-05</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>0.0001538260895736008</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.004203200175857215</v>
+        <v>0.003258772267162477</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>0.0002123468845200793</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>2.006427255307836e-05</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>0.0003845652239340019</v>
       </c>
     </row>
     <row r="4">
@@ -797,88 +797,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00837094526798725</v>
+        <v>0.007480629616872716</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0001320897943077659</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2.340831797859142e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.0003210283608492538</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005713586742635093</v>
+        <v>0.006679730737462338</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.0004915746775504199</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001382748265360029</v>
+        <v>0.004186744872742352</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.0002758837476048275</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001439476399323517</v>
+        <v>0.0006955614485067165</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.000138777885158792</v>
       </c>
       <c r="O4" t="n">
-        <v>0.001382748265360029</v>
+        <v>0.001046686218185588</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01262555531524888</v>
+        <v>0.007492333775862011</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.0002574914977645057</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00145188567862803</v>
+        <v>0.0007273298800490905</v>
       </c>
       <c r="S4" t="n">
-        <v>0.001388066527919106</v>
+        <v>0.002519738228124091</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.0003427646561150887</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0007741465160062734</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.681663595718284e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>4.347259053166978e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.0001287457488822528</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.001430612628391722</v>
+        <v>0.001133631399248927</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2.006427255307836e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.001318929114651104</v>
+        <v>0.003101602132163363</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.0005751758131882464</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.0003043081337216885</v>
       </c>
     </row>
     <row r="5">
@@ -897,64 +897,64 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005667495133789759</v>
+        <v>0.002541474523389926</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001521023091896032</v>
+        <v>0.001071766558876936</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.0005701597450499768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.0007490661753149255</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>8.861720377609609e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.001809128575202566</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.0004631502914335588</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01154240250738352</v>
+        <v>0.009047314898725584</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.001521540668608442</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.003213627653918e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.0005735037904754898</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>5.852079494647855e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
@@ -997,97 +997,97 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00837271802217361</v>
+        <v>0.004980955661301703</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>8.360113563782651e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.001088486786004501</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00777884536974334</v>
+        <v>0.004584686278378406</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>6.186484037199162e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.170415898929571e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.002357552024986707</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.0003578128605298974</v>
       </c>
       <c r="M6" t="n">
-        <v>0.001444794661882594</v>
+        <v>0.0004999347911142025</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.0001538260895736008</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.002292343139189203</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.003872404602744124</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.001404021315596337</v>
+        <v>0.0001203856353184702</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.00114700758095098</v>
       </c>
       <c r="S6" t="n">
-        <v>0.001439476399323517</v>
+        <v>0.0004246937690401586</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.0002357552024986708</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.001732215530415765</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>4.012854510615673e-05</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.0002508034069134795</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001460749449559825</v>
+        <v>7.691304478680038e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.0001906105892542444</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>0.0005785198586137594</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>0.0006905453803684469</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1.170415898929571e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>0.0004899026548376633</v>
       </c>
     </row>
     <row r="7">
@@ -1097,82 +1097,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0001554981122863573</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.001024949922919753</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00145188567862803</v>
+        <v>0.002481281705730691</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004329065723088705</v>
+        <v>0.003489511401522878</v>
       </c>
       <c r="F7" t="n">
-        <v>0.007036061365658915</v>
+        <v>0.003342373402800304</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001329565639769258</v>
+        <v>0.001534916850310495</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.0009028922648885262</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001357929706751002</v>
+        <v>0.001645270349352426</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.0002374272252114273</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006968696706577272</v>
+        <v>0.002205397958125863</v>
       </c>
       <c r="L7" t="n">
-        <v>0.005584175687030885</v>
+        <v>0.001707135189724417</v>
       </c>
       <c r="M7" t="n">
-        <v>0.007011242807049889</v>
+        <v>0.007045903711556018</v>
       </c>
       <c r="N7" t="n">
-        <v>0.002831088435615341</v>
+        <v>0.004337226916890439</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009223640031625934</v>
+        <v>0.007443845117192072</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.0002307391343604012</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001379202756987311</v>
+        <v>0.001409515146853755</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004169517846316394</v>
+        <v>0.00770468066038209</v>
       </c>
       <c r="S7" t="n">
-        <v>0.004187245388179984</v>
+        <v>0.004833817662579129</v>
       </c>
       <c r="T7" t="n">
-        <v>0.008526947636386843</v>
+        <v>0.006169763810071596</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0001906105892542444</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>0.0001404499078715485</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001418203349087209</v>
+        <v>0.0004715104049973415</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>0.0003929253374977846</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>0.00126237714813118</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>0.0007741465160062734</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.0006888733576556904</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>0.0002123468845200793</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>0.0002039867709562967</v>
       </c>
     </row>
     <row r="8">
@@ -1197,64 +1197,64 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001396930298850901</v>
+        <v>0.001566685281852869</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.842438611686101e-05</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00636418752902885</v>
+        <v>0.0008527315835058304</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.003519607810352496</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.170415898929571e-05</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00139870305303726</v>
+        <v>0.00134430626105625</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.000167202271275653</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>4.848865866993937e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.003213627653918e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>0.001349065935819207</v>
+        <v>0.0007490661753149255</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.353686308474814e-05</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.000220706998083862</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>4.180056781891325e-05</v>
       </c>
       <c r="Z8" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.173629526583489e-05</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
@@ -1297,64 +1297,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.004236882505398037</v>
+        <v>0.006499152284484632</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002926817161678727</v>
+        <v>0.0002023147482435401</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001444794661882594</v>
+        <v>0.001295817602386311</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.0003243724062747668</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.001026621945632509</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0007473941526021689</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001396930298850901</v>
+        <v>0.0001036654081909049</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001450112924441671</v>
+        <v>0.0001036654081909049</v>
       </c>
       <c r="J9" t="n">
-        <v>0.002754860005601903</v>
+        <v>0.000583535926752029</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.0001337618170205224</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001310065343719309</v>
+        <v>0.0004096455646253499</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.0002792277930303405</v>
       </c>
       <c r="O9" t="n">
-        <v>0.004185472633993625</v>
+        <v>0.001641926303926913</v>
       </c>
       <c r="P9" t="n">
-        <v>0.002875407290274316</v>
+        <v>0.0007708024705807604</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>4.681663595718284e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.0003076521791472015</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.504820441480877e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001370338986055515</v>
+        <v>0.0005049508592524721</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1366,28 +1366,28 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.001409339578155414</v>
+        <v>0.0004547901778697762</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.00141643059490085</v>
+        <v>0.0001805784529777052</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.0002374272252114273</v>
       </c>
     </row>
     <row r="10">
@@ -1397,82 +1397,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.0002725397021793144</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.0006688090851026121</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002925044407492368</v>
+        <v>0.003282180585141068</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001352611444191926</v>
+        <v>0.0005852079494647856</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.001765655984670896</v>
       </c>
       <c r="G10" t="n">
-        <v>0.007071516449386095</v>
+        <v>0.00196629871020168</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0002942759974451493</v>
       </c>
       <c r="I10" t="n">
-        <v>0.008590766787095768</v>
+        <v>0.00260668340918743</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0005735037904754898</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002816906402124469</v>
+        <v>0.001926170165095523</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00989728662244236</v>
+        <v>0.00318018719966292</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00546894666491755</v>
+        <v>0.007295035095756741</v>
       </c>
       <c r="N10" t="n">
-        <v>0.009989469840133028</v>
+        <v>0.003012984928387267</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006938559885409169</v>
+        <v>0.003850668307478289</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.0004798705185611241</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.0003527967923916278</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001357929706751002</v>
+        <v>0.001315881874939389</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001370338986055515</v>
+        <v>0.003452726901842235</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001382748265360029</v>
+        <v>0.004860570025983233</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0001437939532970616</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>9.196124920160916e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>0.004173063354689112</v>
+        <v>0.001712151257862687</v>
       </c>
       <c r="X10" t="n">
-        <v>0.001388066527919106</v>
+        <v>0.001155367694514762</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.001396930298850901</v>
+        <v>0.002034851641424697</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.001482022499796133</v>
+        <v>0.0005902240176030552</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>0.0002340831797859142</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
@@ -1481,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.001427067120019004</v>
+        <v>0.0002909319520196362</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.004763390498746663</v>
+        <v>0.001178776012493354</v>
       </c>
     </row>
     <row r="11">
@@ -1500,19 +1500,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.0001203856353184702</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1527,52 +1527,52 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.0001554981122863573</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.839224984032183e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.681663595718284e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.0004581342232952892</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.001382748265360029</v>
+        <v>0.0004414139961677239</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.0004598062460080458</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>9.864934005263527e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.0001972986801052705</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.001411112332341773</v>
+        <v>0.0002039867709562967</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>2.173629526583489e-05</v>
       </c>
       <c r="AB11" t="n">
         <v>0</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1597,79 +1597,79 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.009861831538715178</v>
+        <v>0.008416962336016373</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.0006420567216985076</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.001029965991058023</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>5.684877223372203e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.839224984032183e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007023652086354402</v>
+        <v>0.0034309906065764</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2.675236340410448e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0009597410371222483</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00132602013139654</v>
+        <v>0.0008126030383996736</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01301556123624786</v>
+        <v>0.01000371189042232</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.002806269877006314</v>
+        <v>0.002503018000996525</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>0.0001688742939884095</v>
       </c>
       <c r="T12" t="n">
-        <v>0.002652040262793081</v>
+        <v>0.000832667310952752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.00134374767326013</v>
+        <v>0.002594979250198135</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>3.009640882961754e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -1697,97 +1697,97 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004967257230177949</v>
+        <v>0.008885128695588201</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>9.363327191436569e-05</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2.842438611686101e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.0001354338397332789</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>7.858506749955691e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001439476399323517</v>
+        <v>0.005290279863161661</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0002524754296262361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3.511247696788713e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01133853577595224</v>
+        <v>0.007413748708362454</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.0004715104049973415</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0005082949046779851</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>6.353686308474814e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0005467514270713854</v>
       </c>
       <c r="P13" t="n">
-        <v>0.007174336192194918</v>
+        <v>0.007383652299532837</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>6.855293122301773e-05</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.002335815729720872</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.0002324111570731577</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.00154662100929979</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-06</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>0.0001571701349991138</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>0.001019933854781483</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.008321308150769199</v>
+        <v>0.00416333655476376</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.002738905217924672</v>
+        <v>0.000804242924835891</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.001356156952564644</v>
+        <v>0.001568357304565625</v>
       </c>
     </row>
     <row r="14">
@@ -1797,22 +1797,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.002852361485851649</v>
+        <v>0.004253625781252613</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>8.192911292506998e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.028922648885262e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004183699879807266</v>
+        <v>0.003696842217904688</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1821,73 +1821,73 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007103426024740557</v>
+        <v>0.003332341266523764</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.0001287457488822528</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.0002190349753711054</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>0.0001003213627653918</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001370338986055515</v>
+        <v>0.001518196623182929</v>
       </c>
       <c r="P14" t="n">
-        <v>0.002822224664683546</v>
+        <v>0.003452726901842235</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>0.0002056587936690532</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.0001120255217546875</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>0.0003210283608492538</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.028922648885262e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>0.001395157544664542</v>
+        <v>0.002049899845839506</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>3.176843154237407e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>0.000829323265527239</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>5.350472680820896e-05</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.001402248561409978</v>
+        <v>0.0006136323355816466</v>
       </c>
     </row>
     <row r="15">
@@ -1897,37 +1897,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007879892358365803</v>
+        <v>0.01087817976919398</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-06</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3.511247696788713e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.0001120255217546875</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.001014917786643214</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01121621573709346</v>
+        <v>0.01046519015914312</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02324789839991207</v>
+        <v>0.008353425472931624</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.0003076521791472015</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1936,58 +1936,58 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001467840466305261</v>
+        <v>0.003686810081628149</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01338783961538325</v>
+        <v>0.01155869301328589</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>4.681663595718284e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>0.0005902240176030552</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.0009697731733987875</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004006424461171365</v>
+        <v>0.004439220302368587</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>8.192911292506998e-05</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>0.0003611569059554105</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>0.0001989707028180271</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>0.0002056587936690532</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001455431187000748</v>
+        <v>0.00379716358067008</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.001093502854142771</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.00141643059490085</v>
+        <v>0.0001872665438287314</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.001435930890950799</v>
+        <v>0.001661990576479991</v>
       </c>
     </row>
     <row r="16">
@@ -1997,82 +1997,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004132290008402855</v>
+        <v>0.003544688151043844</v>
       </c>
       <c r="D16" t="n">
-        <v>0.004341475002393218</v>
+        <v>0.008264808269155528</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01025538296808688</v>
+        <v>0.005163206136992165</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001460749449559825</v>
+        <v>0.00534880065810814</v>
       </c>
       <c r="G16" t="n">
-        <v>0.007154835896144969</v>
+        <v>0.001817488688766348</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.001859289256585261</v>
       </c>
       <c r="I16" t="n">
-        <v>0.005493765223526575</v>
+        <v>0.001760639916532626</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.0007875226977083257</v>
       </c>
       <c r="K16" t="n">
-        <v>0.004293610639361524</v>
+        <v>0.004532853574282953</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.003034721223653102</v>
       </c>
       <c r="M16" t="n">
-        <v>0.005594812212149039</v>
+        <v>0.007452205230755854</v>
       </c>
       <c r="N16" t="n">
-        <v>0.002781451318397288</v>
+        <v>0.00673657950969606</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001435930890950799</v>
+        <v>0.006380438671878918</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.0002307391343604012</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.001611829895097295</v>
       </c>
       <c r="R16" t="n">
-        <v>0.005749041826362273</v>
+        <v>0.007333491618150141</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01407921374806327</v>
+        <v>0.006622881965228616</v>
       </c>
       <c r="T16" t="n">
-        <v>0.009938059968728616</v>
+        <v>0.00770468066038209</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>0.0003645009513809236</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.0005751758131882464</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>0.0001437939532970616</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.001404021315596337</v>
+        <v>0.002031507595999184</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>0.000917940469303335</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>0.0002625075659027752</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>0.000167202271275653</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.001375657248614593</v>
+        <v>0.0004748544504228545</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.00134374767326013</v>
+        <v>0.0005985841311668378</v>
       </c>
     </row>
     <row r="17">
@@ -2097,7 +2097,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.001981346914616488</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.001395157544664542</v>
+        <v>0.00252475429626236</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2121,40 +2121,40 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.001491444259778825</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.0001070094536164179</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.00106507846802591</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>0.0003026361110089319</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01115239658638454</v>
+        <v>0.01090158808717258</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>7.356899936128732e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01816541214762079</v>
+        <v>0.007721400887509656</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.012854510615673e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.0001805784529777052</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0009497089008457091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2163,31 +2163,31 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>2.006427255307836e-05</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>0.0003929253374977846</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>0.0001036654081909049</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>3.511247696788713e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>0.0004514461324442631</v>
       </c>
     </row>
     <row r="18">
@@ -2197,97 +2197,97 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01534318748293724</v>
+        <v>0.008960369717662245</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>8.025709021231345e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.0005785198586137594</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001388066527919106</v>
+        <v>0.001203856353184702</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.000305980156434445</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01112935078196187</v>
+        <v>0.006666354555760285</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0002708676794665579</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5.517674952096549e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.008452491960559765</v>
+        <v>0.006617865897090346</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.0004715104049973415</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.0003043081337216885</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.0002340831797859142</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>0.00113697544467444</v>
       </c>
       <c r="P18" t="n">
-        <v>0.00709810776218148</v>
+        <v>0.009423520009095803</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>7.524102207404385e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>7.022495393577427e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.0001906105892542444</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001310065343719309</v>
+        <v>0.00109851892228104</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.002962824247004571</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>0.0002508034069134795</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>7.858506749955691e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.0002190349753711054</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>0.0005317032226565766</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>4.848865866993937e-05</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.001430612628391722</v>
+        <v>0.001586749554405947</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>0.0007407060617511429</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>0.0002976200428706623</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>0.001207200398610215</v>
       </c>
     </row>
     <row r="19">
@@ -2297,97 +2297,97 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001336656656514694</v>
+        <v>0.001981346914616488</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8.527315835058303e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.001757295871107113</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>3.176843154237407e-05</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.0002976200428706623</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.003504559605937687</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>4.514461324442631e-05</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.173629526583489e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.001402248561409978</v>
+        <v>0.002140189072328358</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.002772587547465493</v>
+        <v>0.004626486846197319</v>
       </c>
       <c r="M19" t="n">
-        <v>0.009154502618357933</v>
+        <v>0.00293439986088771</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.0007055935847832557</v>
       </c>
       <c r="O19" t="n">
-        <v>0.00141643059490085</v>
+        <v>0.001024949922919753</v>
       </c>
       <c r="P19" t="n">
-        <v>0.001418203349087209</v>
+        <v>0.003094914041312337</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.002859452502597085</v>
+        <v>0.001916138028818983</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.0002073308163818097</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.001091830831430014</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02097522753299982</v>
+        <v>0.01098853326823592</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0008911881058992306</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>0.001356156952564644</v>
+        <v>0.0001554981122863573</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>9.363327191436569e-05</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.001480249745609774</v>
+        <v>0.0003778771330829758</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>0.0001588421577118704</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>0.0003812211785084889</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.004104815759817282</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.001388066527919106</v>
+        <v>0.0001120255217546875</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.007053788907522505</v>
+        <v>0.004457612552208909</v>
       </c>
     </row>
     <row r="20">
@@ -2397,97 +2397,97 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.005713586742635093</v>
+        <v>0.006627898033366885</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.842438611686101e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.004114562466539265</v>
+        <v>0.002302375275465742</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.0001805784529777052</v>
       </c>
       <c r="G20" t="n">
-        <v>0.006935014377036451</v>
+        <v>0.006785068168365999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.005477810435849344</v>
+        <v>0.004078063396413177</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.002774360301651852</v>
+        <v>0.0008577476516441</v>
       </c>
       <c r="M20" t="n">
-        <v>0.001480249745609774</v>
+        <v>0.0002524754296262361</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>0.004286519622616089</v>
+        <v>0.001483084146215042</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01790659003641237</v>
+        <v>0.01574376586331549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.697731733987874e-05</v>
       </c>
       <c r="R20" t="n">
-        <v>0.004160654075384599</v>
+        <v>0.003390862061470243</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.0009346606964309003</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6.353686308474814e-05</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.002339159775146385</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-05</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1.504820441480877e-05</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2.006427255307836e-05</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.0004246937690401586</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-06</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-06</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>0.001673694735469287</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.005516811027949243</v>
+        <v>0.005395617294065323</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>8.360113563782651e-05</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.001455431187000748</v>
+        <v>0.00053003119994382</v>
       </c>
     </row>
     <row r="21">
@@ -2497,82 +2497,82 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.0001220576580312267</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.0007557542661659516</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.0008527315835058304</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.001105207013132066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00134374767326013</v>
+        <v>0.002140189072328358</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.0002073308163818097</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.001419547283130294</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.0003310604971257929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.0001738903621266791</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.001126943308397901</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.002598323295623648</v>
       </c>
       <c r="N21" t="n">
-        <v>0.002699904625824774</v>
+        <v>0.001105207013132066</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.0005935680630285682</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.002675086067215748</v>
+        <v>0.0007340179709001167</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.001150351626376493</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.00143125144211959</v>
       </c>
       <c r="T21" t="n">
-        <v>0.00132602013139654</v>
+        <v>0.001936202301372062</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>0.0002324111570731577</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>0.0009898374459518659</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.003213627653918e-05</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>0.0008025709021231344</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>0.0008226351746762128</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>0.0002976200428706623</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.839224984032183e-05</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>0.001182120057918867</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>0.0001053374309036614</v>
       </c>
     </row>
     <row r="22">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.0003243724062747668</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0005985841311668378</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001396930298850901</v>
+        <v>0.0003979414056360542</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2630,34 +2630,34 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0001053374309036614</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.0002909319520196362</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.000220706998083862</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>2.675236340410448e-05</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2.006427255307836e-05</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>6.186484037199162e-05</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2675,10 +2675,10 @@
         <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>3.678449968064366e-05</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
       <c r="AD22" t="n">
         <v>0</v>
@@ -2697,22 +2697,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.0006738251532408816</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>0.001356156952564644</v>
+        <v>0.0001972986801052705</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.855293122301773e-05</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>7.524102207404385e-05</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2721,46 +2721,46 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.0003728610649447062</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.0001989707028180271</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>6.855293122301773e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.0003945973602105411</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>0.002115108731637011</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>0.0002340831797859142</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>5.350472680820896e-05</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.0002190349753711054</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>2.842438611686101e-05</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="AE23" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.001388066527919106</v>
+        <v>0.000750738198027682</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>7.524102207404385e-05</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0009881654232391092</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2821,16 +2821,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.0003377485879768191</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-06</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>0.000305980156434445</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>4.514461324442631e-05</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.0001839224984032183</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>0.0001855945211159748</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -2897,13 +2897,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.001480249745609774</v>
+        <v>0.002666876226846665</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2912,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.004291837885175166</v>
+        <v>0.004504429188166092</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2921,40 +2921,40 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001460749449559825</v>
+        <v>0.001842569029457696</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.000583535926752029</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>3.009640882961754e-05</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>0.0009246285601543611</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>7.524102207404385e-05</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.858506749955691e-05</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.002719404921874723</v>
+        <v>0.003621601195830644</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.0005684877223372202</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>6.186484037199162e-05</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>0.0003026361110089319</v>
       </c>
       <c r="AD25" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.001212216466748484</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>7.691304478680038e-05</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.002446169228762804</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3021,40 +3021,40 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.002841724960733495</v>
+        <v>0.002145205140466628</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.0004648223141463153</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.0005099669273907417</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.0004531181551570196</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>0.0002875879065941232</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>5.684877223372203e-05</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-06</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.0001136975444674441</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.0004614782687208023</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.001482022499796133</v>
+        <v>0.0003996134283488107</v>
       </c>
       <c r="AD26" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.0005250151318055504</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.001402248561409978</v>
+        <v>0.001481412123502286</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.002744223480483749</v>
+        <v>0.001222248603025024</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -3136,16 +3136,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>6.520888579750467e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.0001705463167011661</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3178,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -3200,58 +3200,58 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.0003043081337216885</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001430612628391722</v>
+        <v>0.0009898374459518659</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.0001203856353184702</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.0001170415898929571</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.001063406445313153</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>8.694518106333956e-05</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8.861720377609609e-05</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.34404542551306e-06</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.002118452777062524</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.0002390992479241838</v>
       </c>
       <c r="M28" t="n">
-        <v>0.001450112924441671</v>
+        <v>0.002273950889348881</v>
       </c>
       <c r="N28" t="n">
-        <v>0.001455431187000748</v>
+        <v>0.001473052009938503</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>0.0001805784529777052</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>0.0001621862031373834</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>0.0002992920655834189</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>0.0007891947204210822</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.0006504168352622902</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -3260,19 +3260,19 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>0.0009948535140901354</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1.839224984032183e-05</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>0.0001805784529777052</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>0.0005935680630285682</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.839224984032183e-05</v>
       </c>
     </row>
     <row r="29">
@@ -3300,79 +3300,79 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4.681663595718284e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>4.681663595718284e-05</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>8.861720377609609e-05</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.0001287457488822528</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.001051702286323857</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="I29" t="n">
-        <v>0.002823997418869905</v>
+        <v>0.0001437939532970616</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>7.022495393577427e-05</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.001357929706751002</v>
+        <v>0.001075110604302449</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.0002675236340410448</v>
       </c>
       <c r="O29" t="n">
-        <v>0.001382748265360029</v>
+        <v>0.001481412123502286</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="S29" t="n">
-        <v>0.005534538569812833</v>
+        <v>0.000836011356378265</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.0002909319520196362</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.504820441480877e-05</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>0.0001404499078715485</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>7.022495393577427e-05</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>0.0003828932012212454</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1.170415898929571e-05</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
@@ -3381,13 +3381,13 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>0.0003912533147850281</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.00141643059490085</v>
+        <v>0.0004932467002631764</v>
       </c>
     </row>
     <row r="30">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -3418,49 +3418,49 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.170415898929571e-05</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3.678449968064366e-05</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>2.508034069134795e-05</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.170415898929571e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>2.006427255307836e-05</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>5.016068138269591e-06</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-05</v>
       </c>
       <c r="T30" t="n">
-        <v>0.002772587547465493</v>
+        <v>0.002867518952377449</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>2.842438611686101e-05</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001310065343719309</v>
+        <v>0.0001989707028180271</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.006427255307836e-05</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>1.003213627653918e-05</v>
       </c>
       <c r="F31" t="n">
-        <v>0.001428839874205363</v>
+        <v>0.000277555770317584</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>6.68809085102612e-06</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3527,52 +3527,52 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>4.347259053166978e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>3.176843154237407e-05</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>7.18969766485308e-05</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>4.681663595718284e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>5.517674952096549e-05</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>0.0002023147482435401</v>
       </c>
       <c r="T31" t="n">
-        <v>0.002740677972111031</v>
+        <v>0.0003427646561150887</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>7.858506749955691e-05</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>2.006427255307836e-05</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>0.0001354338397332789</v>
       </c>
       <c r="Z31" t="n">
-        <v>0</v>
+        <v>3.845652239340019e-05</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.002744223480483749</v>
+        <v>0.000558455586060681</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>6.855293122301773e-05</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>1.67202271275653e-06</v>
       </c>
     </row>
     <row r="32">
@@ -3600,79 +3600,79 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>2.675236340410448e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.00053003119994382</v>
       </c>
       <c r="E32" t="n">
-        <v>0.001455431187000748</v>
+        <v>0.0001153695671802006</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.0006554329034005598</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.000110353499041931</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>0.0001421219305843051</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.0003076521791472015</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>3.176843154237407e-05</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684877223372203e-05</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0002374272252114273</v>
       </c>
       <c r="M32" t="n">
-        <v>0.001435930890950799</v>
+        <v>0.0009647571052605179</v>
       </c>
       <c r="N32" t="n">
-        <v>0.001349065935819207</v>
+        <v>0.0003661729740936801</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>0.0006504168352622902</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>6.855293122301773e-05</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>0.000110353499041931</v>
       </c>
       <c r="S32" t="n">
-        <v>0.00141643059490085</v>
+        <v>0.0009012202421757697</v>
       </c>
       <c r="T32" t="n">
-        <v>0.004183699879807266</v>
+        <v>0.001473052009938503</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.337618170205224e-05</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>8.36011356378265e-06</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>0.0001755623848394357</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>5.01606813826959e-05</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>0.0001855945211159748</v>
       </c>
       <c r="Z32" t="n">
-        <v>0</v>
+        <v>2.842438611686101e-05</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.001402248561409978</v>
+        <v>0.0004397419734549674</v>
       </c>
       <c r="AB32" t="n">
         <v>0</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.001356156952564644</v>
+        <v>0.0001688742939884095</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>0.0001554981122863573</v>
       </c>
     </row>
   </sheetData>
